--- a/BOMTest.xlsx
+++ b/BOMTest.xlsx
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is a BOM</t>
+  </si>
+  <si>
+    <t>This a real test</t>
   </si>
 </sst>
 </file>
@@ -355,9 +358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -366,6 +371,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
